--- a/COD R13 Cloud ERP Automation/src/test/resources/TestArtifacts/COD R13 Cloud Erp Control File.xlsx
+++ b/COD R13 Cloud ERP Automation/src/test/resources/TestArtifacts/COD R13 Cloud Erp Control File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="686" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="686" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>25</v>
@@ -1064,7 +1064,7 @@
         <v>59</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>25</v>
